--- a/data/income_statement/2digits/size/11_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/11_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>11-Manufacture of beverages</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>11-Manufacture of beverages</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,659 +841,744 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>493729.8574</v>
+        <v>533020.2415</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>610180.39911</v>
+        <v>637011.51614</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>602798.31602</v>
+        <v>630515.38864</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>675567.5429199999</v>
+        <v>693843.70935</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>853736.75696</v>
+        <v>933336.92469</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>843632.06468</v>
+        <v>982907.25699</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>867338.72244</v>
+        <v>1019038.08381</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>942652.7507100001</v>
+        <v>1099937.24569</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1257533.48516</v>
+        <v>1536361.57497</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2829661.13557</v>
+        <v>2864527.94805</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3067342.32474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3309880.48414</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3396427.108</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>475139.73723</v>
+        <v>511908.93539</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>586794.91625</v>
+        <v>609282.97765</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>578144.15113</v>
+        <v>602541.233</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>644671.3888200001</v>
+        <v>656855.95472</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>807206.02027</v>
+        <v>880619.68983</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>794800.9299400001</v>
+        <v>931048.02003</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>826178.76917</v>
+        <v>960314.69965</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>907548.23536</v>
+        <v>1032996.69137</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1206717.76971</v>
+        <v>1431473.88505</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2564914.62457</v>
+        <v>2592028.45246</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2825262.21618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3066619.93892</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3161529.083</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>12248.2029</v>
+        <v>14943.79577</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>13748.51617</v>
+        <v>18009.51548</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>15928.05336</v>
+        <v>18340.69312</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>18496.48255</v>
+        <v>24752.65046</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>29000.94204</v>
+        <v>32179.33265</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>33806.70052000001</v>
+        <v>34693.91868</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>22999.10461</v>
+        <v>34388.90277</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>19267.06298</v>
+        <v>47292.94643</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>25691.78315</v>
+        <v>65411.28651</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>153227.86262</v>
+        <v>177898.83989</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>156909.08427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>160928.4004</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>96677.677</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6341.91727</v>
+        <v>6167.51034</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9636.966689999999</v>
+        <v>9719.023009999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>8726.11153</v>
+        <v>9633.462519999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>12399.67155</v>
+        <v>12235.10417</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>17529.79465</v>
+        <v>20537.90221</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>15024.43422</v>
+        <v>17165.31828</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18160.84866</v>
+        <v>24334.48139</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15837.45237</v>
+        <v>19647.60789</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>25123.9323</v>
+        <v>39476.40341</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>111518.64838</v>
+        <v>94600.6557</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>85171.02429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>82332.14481999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>138220.348</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>14146.9034</v>
+        <v>20034.57566</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>25192.50576</v>
+        <v>35189.71489</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>25178.09127</v>
+        <v>19806.27113</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>37994.50907</v>
+        <v>37062.64655</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>52804.82527</v>
+        <v>54288.23658</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>49292.16729999999</v>
+        <v>63944.39765</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>53726.30929999999</v>
+        <v>79946.80826999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>54625.4625</v>
+        <v>55784.78494</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>82707.96028</v>
+        <v>86826.20436</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>264867.27873</v>
+        <v>182979.87314</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>174046.48577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>166318.82742</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>240148.834</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6991.70023</v>
+        <v>7254.85035</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>11609.85733</v>
+        <v>15809.01589</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>14342.79032</v>
+        <v>10867.97515</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>15975.07232</v>
+        <v>14052.27233</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>21683.29056</v>
+        <v>18788.93699</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>14605.94987</v>
+        <v>26916.80567</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>26292.33402</v>
+        <v>24028.35941</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>25976.98233</v>
+        <v>22900.78768</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>34733.06884000001</v>
+        <v>39123.269</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>147958.10272</v>
+        <v>128907.88624</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>61577.40989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>68502.52837999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>88210.96799999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5740.75171</v>
+        <v>6646.689679999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>12335.18594</v>
+        <v>12823.73022</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>9229.11044</v>
+        <v>7039.32034</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>11548.14794</v>
+        <v>12109.68312</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>17425.71292</v>
+        <v>19596.88557</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>18600.16818</v>
+        <v>14908.80382</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>11261.74024</v>
+        <v>13274.06145</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>12988.25083</v>
+        <v>13135.576</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>19834.16297</v>
+        <v>19008.18388</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>14970.1218</v>
+        <v>14651.2951</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>61327.92447999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>53736.0876</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>68661.51300000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1414.45146</v>
+        <v>6133.03563</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1247.46249</v>
+        <v>6556.96878</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1606.19051</v>
+        <v>1898.97564</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>10471.28881</v>
+        <v>10900.6911</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>13695.82179</v>
+        <v>15902.41402</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>16086.04925</v>
+        <v>22118.78816</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>16172.23504</v>
+        <v>42644.38741</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>15660.22934</v>
+        <v>19748.42126</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>28140.72847</v>
+        <v>28694.75148</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>101939.05421</v>
+        <v>39420.6918</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>51141.1514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>44080.21144</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>83276.353</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>479582.954</v>
+        <v>512985.66584</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>584987.89335</v>
+        <v>601821.80125</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>577620.2247500001</v>
+        <v>610709.11751</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>637573.03385</v>
+        <v>656781.0628</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>800931.9316900001</v>
+        <v>879048.68811</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>794339.89738</v>
+        <v>918962.8593400001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>813612.41314</v>
+        <v>939091.2755399999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>888027.28821</v>
+        <v>1044152.46075</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1174825.52488</v>
+        <v>1449535.37061</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2564793.85684</v>
+        <v>2681548.07491</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2893295.83897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3143561.65672</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3156278.274</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>372356.73104</v>
+        <v>410105.35448</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>438768.4918</v>
+        <v>460768.90535</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>443285.58498</v>
+        <v>485209.14693</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>501553.30376</v>
+        <v>523472.00198</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>612810.97405</v>
+        <v>670031.2824199999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>609437.69998</v>
+        <v>704198.43565</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>617711.75972</v>
+        <v>705620.7397</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>670390.8106900001</v>
+        <v>782048.88104</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>917354.68314</v>
+        <v>1108489.42632</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2031801.45321</v>
+        <v>2129298.81392</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2180041.48082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2388101.32142</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2340241.762</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>308820.35942</v>
+        <v>353508.74526</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>379500.85559</v>
+        <v>405586.5554</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>379549.65659</v>
+        <v>425064.26376</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>429390.41833</v>
+        <v>446895.11524</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>529153.31807</v>
+        <v>587393.56062</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>512816.01524</v>
+        <v>607688.54935</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>550147.08501</v>
+        <v>639785.31816</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>590703.73937</v>
+        <v>706953.1173200001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>830636.6529400001</v>
+        <v>1015330.37689</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1841731.42299</v>
+        <v>1923982.43681</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2004045.84301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2208850.88383</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2071598.398</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>44789.00748</v>
+        <v>39889.20606</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>44175.29156000001</v>
+        <v>40218.94697999999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>38250.04896</v>
+        <v>34407.38641</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>40631.11726</v>
+        <v>39619.01833</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>56244.40009</v>
+        <v>55951.89024</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>38102.78287</v>
+        <v>41771.45703</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>43603.08879</v>
+        <v>40274.6427</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>46142.7509</v>
+        <v>41668.74049</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>53328.1985</v>
+        <v>51413.34611</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>117737.31132</v>
+        <v>138858.05279</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>84288.92083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>89790.70139</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>183231.984</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>16760.04662</v>
+        <v>14573.70232</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>12639.37288</v>
+        <v>12189.68162</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>22953.67719</v>
+        <v>22786.05903</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>29130.49014</v>
+        <v>34093.10991</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>23929.92287</v>
+        <v>23748.51199</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>53519.6472</v>
+        <v>52784.10587</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>21328.02309</v>
+        <v>21462.89987</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>29900.9593</v>
+        <v>28837.04512</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>29032.38625</v>
+        <v>33251.18792</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>59845.84003</v>
+        <v>56678.91072</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>74465.51178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>70943.65537000001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>62185.77</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1987.31752</v>
+        <v>2133.70084</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2452.97177</v>
+        <v>2773.72135</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2532.20224</v>
+        <v>2951.43773</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2401.27803</v>
+        <v>2864.7585</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3483.33302</v>
+        <v>2937.31957</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4999.25467</v>
+        <v>1954.3234</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2633.56283</v>
+        <v>4097.87897</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3643.36112</v>
+        <v>4589.97811</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4357.44545</v>
+        <v>8494.5154</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>12486.87887</v>
+        <v>9779.4136</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>17241.2052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18516.08083</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>23225.61</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>107226.22296</v>
+        <v>102880.31136</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>146219.40155</v>
+        <v>141052.8959</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>134334.63977</v>
+        <v>125499.97058</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>136019.73009</v>
+        <v>133309.06082</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>188120.95764</v>
+        <v>209017.40569</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>184902.1974</v>
+        <v>214764.42369</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>195900.65342</v>
+        <v>233470.53584</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>217636.47752</v>
+        <v>262103.57971</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>257470.84174</v>
+        <v>341045.94429</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>532992.40363</v>
+        <v>552249.26099</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>713254.35815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>755460.3352999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>816036.512</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>91717.35876999999</v>
+        <v>87433.71379000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>124061.82663</v>
+        <v>119909.36465</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>108896.1264</v>
+        <v>104559.37299</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>161470.04704</v>
+        <v>161455.15396</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>182640.63873</v>
+        <v>218168.99003</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>149895.86486</v>
+        <v>197463.51964</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>130387.98156</v>
+        <v>146945.35923</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>136405.07397</v>
+        <v>170100.98943</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>171514.42942</v>
+        <v>220730.92525</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>315085.01165</v>
+        <v>343136.80289</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>352854.91288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>367207.53839</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>431380.237</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>392.95878</v>
+        <v>459.9009</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>643.63476</v>
+        <v>704.10698</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>65.53478</v>
+        <v>113.24248</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>40.30661</v>
+        <v>67.15072000000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>544.7481700000001</v>
+        <v>567.51041</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>664.7982900000001</v>
+        <v>665.84698</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>0</v>
+        <v>38.496</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>395.15284</v>
@@ -1601,211 +1587,241 @@
         <v>20.89222</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>323.09633</v>
+        <v>8159.986879999999</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>326.26046</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>483.921</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>46536.85727</v>
+        <v>46750.52999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>72123.4231</v>
+        <v>71018.0959</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>61842.35628</v>
+        <v>58804.22879</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>98411.6133</v>
+        <v>102097.1027</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>118532.55243</v>
+        <v>157552.30503</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>91988.98031999999</v>
+        <v>140345.84123</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>72435.68423</v>
+        <v>80434.57113</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>70809.60731000001</v>
+        <v>90674.00161000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>93497.75184</v>
+        <v>120850.9674</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>181143.84331</v>
+        <v>182011.71969</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>191618.75251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>200655.73678</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>256041.786</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>44787.54272</v>
+        <v>40223.2829</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>51294.76877</v>
+        <v>48187.16177000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>46988.23534000001</v>
+        <v>45641.90172</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>63018.12713</v>
+        <v>59290.90054</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>63563.33813</v>
+        <v>60049.17459</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>57242.08625</v>
+        <v>56451.83143</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>57952.29733</v>
+        <v>66472.29210000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>65200.31382</v>
+        <v>79031.83498</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>77995.78535999999</v>
+        <v>99859.06563</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>133618.07201</v>
+        <v>152965.09632</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>160909.89991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>166225.54115</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>174854.53</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>15508.86419</v>
+        <v>15446.59757</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>22157.57492</v>
+        <v>21143.53125</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>25438.51337</v>
+        <v>20940.59759</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-25450.31695</v>
+        <v>-28146.09314</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5480.31891</v>
+        <v>-9151.584339999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>35006.33254</v>
+        <v>17300.90405</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>65512.67186</v>
+        <v>86525.17660999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>81231.40355</v>
+        <v>92002.59028</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>85956.41231999999</v>
+        <v>120315.01904</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>217907.39198</v>
+        <v>209112.4581</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>360399.44527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>388252.79691</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>384656.275</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6464.15539</v>
+        <v>10295.94471</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10823.87207</v>
+        <v>16912.21955</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>8900.347609999999</v>
+        <v>12728.52248</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>9587.16647</v>
+        <v>9599.709869999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>10145.97362</v>
+        <v>10358.30636</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>12702.69736</v>
+        <v>14485.65004</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>13067.69794</v>
+        <v>27412.55697</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>12830.54229</v>
+        <v>25691.53666</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>18091.65445</v>
+        <v>28960.51668</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>146464.63171</v>
+        <v>294920.83347</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>83655.32162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>106702.46109</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>86804.08100000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>75.762</v>
+        <v>220.48471</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>56.8215</v>
+        <v>266.66864</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>124.32551</v>
+        <v>60.6096</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>60.6096</v>
+        <v>603.0115999999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>60.6096</v>
+        <v>689.7126500000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>917.949</v>
+        <v>1507.60294</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>113.643</v>
+        <v>10427.81334</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>110.41754</v>
+        <v>415.84816</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>30.3048</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>321.969</v>
+        <v>695.9040500000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>151.524</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>10387.295</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>106.067</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3.95887</v>
@@ -1838,52 +1854,62 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>910.206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>716.93445</v>
+        <v>1712.26109</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1455.52807</v>
+        <v>1548.01737</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1401.24342</v>
+        <v>2785.07666</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1322.85563</v>
+        <v>1590.69955</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1888.16322</v>
+        <v>1193.98497</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1608.40847</v>
+        <v>1032.16901</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3283.86414</v>
+        <v>4641.60039</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4093.07482</v>
+        <v>4624.35008</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2880.10725</v>
+        <v>7891.106309999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>21353.5239</v>
+        <v>30350.45176</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>23925.15921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>27686.8786</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>22369.135</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>9.621919999999999</v>
@@ -1892,157 +1918,177 @@
         <v>4.58684</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>252.30763</v>
+        <v>253.32836</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>73.25983000000001</v>
+        <v>61.65792</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>32.81222</v>
+        <v>18.7343</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>73.54957</v>
+        <v>68.97117</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>1.00992</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>13.76462</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>9.83122</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>0.25423</v>
+        <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>0.2444</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>108.96863</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>184.29945</v>
+        <v>269.5168</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>313.08958</v>
+        <v>306.28367</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>133.06755</v>
+        <v>113.05951</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>54.27116</v>
+        <v>1.1025</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>174.25055</v>
+        <v>169.33532</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>113.76359</v>
+        <v>90.66464000000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>57.13438</v>
+        <v>176.41935</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>216.30749</v>
+        <v>248.09917</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>923.74923</v>
+        <v>821.74923</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>321.89729</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>534.70065</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>598.497</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>77.91503999999999</v>
+        <v>25.54129</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>26.7464</v>
+        <v>29.06818</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>202.25262</v>
+        <v>407.14385</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1.9937</v>
+        <v>77.14535000000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6.78104</v>
+        <v>252.16031</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>7.92239</v>
+        <v>88.00124000000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>63.5466</v>
+        <v>131.49626</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>128.6777</v>
+        <v>120.20996</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>24.4774</v>
+        <v>505.54723</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>922.9761</v>
+        <v>138746.71082</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>413.52121</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1614.019</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2942.55064</v>
+        <v>5099.81616</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6377.90421</v>
+        <v>11567.99487</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5090.22921</v>
+        <v>6560.21627</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4017.5519</v>
+        <v>3164.62469</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2441.44859</v>
+        <v>1679.74096</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3703.43904</v>
+        <v>4279.341530000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5288.80326</v>
+        <v>7581.99345</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3813.00972</v>
+        <v>13758.09457</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>11090.08144</v>
+        <v>14331.07346</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>108391.83972</v>
+        <v>109510.48266</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>37053.41108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>40924.8964</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>48250.244</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>25.9188</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>8.631870000000001</v>
@@ -2051,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>19.09307</v>
+        <v>147.42235</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>559.87703</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>3.8</v>
@@ -2093,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>5.2263</v>
+        <v>2.26712</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2524.64384</v>
+        <v>3085.57324</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2681.82883</v>
+        <v>3190.21008</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1516.89964</v>
+        <v>2355.86407</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3958.73519</v>
+        <v>3842.0889</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5581.69142</v>
+        <v>6445.63348</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6137.55393</v>
+        <v>7260.60442</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4203.06743</v>
+        <v>4537.97897</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4614.38557</v>
+        <v>6596.536599999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3806.98027</v>
+        <v>5880.68511</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>11808.53707</v>
+        <v>12053.75249</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>20319.4814</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>26195.0478</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>13866.119</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5096.08225</v>
+        <v>7431.351570000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>8755.778829999999</v>
+        <v>13105.42917</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>14598.58759</v>
+        <v>18428.68934</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5556.70304</v>
+        <v>4321.32811</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>17251.73946</v>
+        <v>10207.93008</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9993.688699999999</v>
+        <v>11237.13703</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>24099.41473</v>
+        <v>35605.06455</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>11117.87159</v>
+        <v>22275.14204</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>17121.41044</v>
+        <v>24802.70052</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>111421.97169</v>
+        <v>106626.31997</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>46403.36869</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>54175.91239</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>70723.55499999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>34.15535</v>
+        <v>71.22371000000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>98.17504</v>
+        <v>116.29374</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>89.43396000000001</v>
+        <v>81.52916999999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>96.98836999999999</v>
+        <v>33.79705999999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>130.30622</v>
+        <v>12.915</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>69.55342999999999</v>
+        <v>42.76489</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>43.28915</v>
+        <v>38.75557</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>155.02424</v>
+        <v>154.73336</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>188.05828</v>
+        <v>166.36982</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>112.55125</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>74.04564999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>4.244</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1631.98518</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2848.90977</v>
+        <v>2622.81938</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2071.69994</v>
+        <v>2024.73802</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>696.1834399999999</v>
+        <v>336.14663</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1861.03507</v>
+        <v>1023.26577</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1110.72347</v>
+        <v>1014.11163</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1764.12334</v>
+        <v>1786.25796</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2818.35326</v>
+        <v>3563.48453</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>4349.53004</v>
+        <v>4407.897849999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3591.77511</v>
+        <v>3492.77511</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5364.86183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5112.18793</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4936.036</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2288,70 +2364,80 @@
         <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.02583</v>
+        <v>148.65883</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0.6820000000000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>19.37022</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5.51117</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0.02725</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>289.09449</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2839.79296</v>
+        <v>5291.28716</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4275.45003</v>
+        <v>8897.96357</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>8398.63076</v>
+        <v>9598.879429999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2344.70903</v>
+        <v>2071.61782</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>13465.55763</v>
+        <v>7160.233639999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6845.54723</v>
+        <v>7986.30312</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>20088.83726</v>
+        <v>30147.46514</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7582.2148</v>
+        <v>16302.69908</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>10793.23362</v>
+        <v>16895.50508</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>99964.87273</v>
+        <v>95016.50431999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>33803.27761</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>36375.67782</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>57675.748</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2360,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0</v>
+        <v>128.32928</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>16.49676</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>472.05813</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>690.68022</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>590.14876</v>
+        <v>436.85552</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1533.24271</v>
+        <v>1468.3512</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4038.82293</v>
+        <v>6595.21344</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2418.8222</v>
+        <v>1879.7666</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1794.81471</v>
+        <v>1846.36008</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1967.18257</v>
+        <v>2193.27539</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2183.79476</v>
+        <v>2941.90566</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>553.59605</v>
+        <v>2251.053</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1790.56125</v>
+        <v>3332.90052</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4801.33093</v>
+        <v>5342.142110000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6689.12547</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>12141.94286</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8107.527</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>16623.8214</v>
+        <v>18357.5211</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>17045.25107</v>
+        <v>19234.47158</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>22281.99222</v>
+        <v>20384.56842</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>23227.74568</v>
+        <v>23175.2033</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>34070.576</v>
+        <v>43834.01661</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>26126.31401</v>
+        <v>43210.29111</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>33793.42659</v>
+        <v>47811.45907</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>26653.41235</v>
+        <v>50789.30184</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>33664.94086</v>
+        <v>57270.88262</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>102671.65743</v>
+        <v>115730.49158</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>90154.54142000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>98165.86414000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>88887.683</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>16224.22689</v>
+        <v>17600.47407</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>16503.31764</v>
+        <v>17934.96625</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>21633.95219</v>
+        <v>19736.52839</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>22194.05813</v>
+        <v>22039.33243</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>29006.17782</v>
+        <v>39210.00218</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>24779.46355</v>
+        <v>40078.14843</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>31411.10668</v>
+        <v>45574.65114</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>24225.74483</v>
+        <v>48046.06535</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>30242.82289</v>
+        <v>52135.02529999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>95461.11887000001</v>
+        <v>110690.91371</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>82509.46331000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>92124.97595000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>81514.024</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>399.59451</v>
+        <v>757.0470300000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>541.93343</v>
+        <v>1299.50533</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>648.04003</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1033.68755</v>
+        <v>1135.87087</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5064.39818</v>
+        <v>4624.014429999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1346.85046</v>
+        <v>3132.14268</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2382.31991</v>
+        <v>2236.80793</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2427.66752</v>
+        <v>2743.23649</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3422.11797</v>
+        <v>5135.85732</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>7210.53856</v>
+        <v>5039.57787</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>7645.07811</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>6040.888190000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7373.659</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>253.11593</v>
+        <v>-46.33039</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>7180.41709</v>
+        <v>5715.85005</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2541.71883</v>
+        <v>-5144.13769</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-44647.5992</v>
+        <v>-46042.91468</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-35696.02293</v>
+        <v>-52835.22467</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>11589.02719</v>
+        <v>-22660.87405</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>20687.52848</v>
+        <v>30521.20996</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>56290.6619</v>
+        <v>44629.68306</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>53261.71547</v>
+        <v>67201.95258</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>150278.39457</v>
+        <v>281676.48002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>307496.85678</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>342613.4814700001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>311849.118</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5010.579009999999</v>
+        <v>4343.177610000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>11413.70555</v>
+        <v>53064.1632</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7601.21316</v>
+        <v>10912.25544</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>14891.26508</v>
+        <v>10472.69913</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7886.06782</v>
+        <v>6823.83345</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>9450.451539999998</v>
+        <v>9690.783710000002</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>11492.01563</v>
+        <v>7732.9955</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>7828.18584</v>
+        <v>9987.92815</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>24346.13091</v>
+        <v>30058.24017</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>19236.06419</v>
+        <v>21093.52241</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>33568.90498</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>58637.08036</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>54269.654</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>733.2580300000001</v>
+        <v>98.07509</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>421.37863</v>
+        <v>583.16239</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>361.97484</v>
+        <v>697.9967800000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>224.12899</v>
+        <v>224.48399</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>491.1071</v>
+        <v>492.37212</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>399.89995</v>
+        <v>10.37352</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>521.45982</v>
+        <v>577.56965</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>256.61268</v>
+        <v>245.77136</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>215.85483</v>
+        <v>769.1871600000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>242.70697</v>
+        <v>15.7715</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>774.57724</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>500.37217</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>287.536</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4277.32098</v>
+        <v>4245.102519999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>10992.32692</v>
+        <v>52481.00081000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7239.23832</v>
+        <v>10214.25866</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>14667.13609</v>
+        <v>10248.21514</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>7394.96072</v>
+        <v>6331.46133</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>9050.551589999999</v>
+        <v>9680.410189999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10970.55581</v>
+        <v>7155.42585</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>7571.57316</v>
+        <v>9742.156789999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>24130.27608</v>
+        <v>29289.05301</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>18993.35722</v>
+        <v>21077.75091</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>32794.32774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>58136.70819</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>53982.118</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3449.33454</v>
+        <v>10481.30202</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10182.68836</v>
+        <v>104840.43207</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>35698.16379999999</v>
+        <v>61926.3564</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>11095.20735</v>
+        <v>11492.65247</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>21991.3101</v>
+        <v>39368.52997</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>22154.93992</v>
+        <v>32099.9998</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>14625.74683</v>
+        <v>34601.25066</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>19291.53599</v>
+        <v>52965.44131</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>9403.968859999999</v>
+        <v>22597.54556</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>60315.15932999999</v>
+        <v>72184.97356</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>33261.98585</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>69007.88809000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>28474.572</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>509.36963</v>
+        <v>1090.87934</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2754.5431</v>
+        <v>4156.53269</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1255.5249</v>
+        <v>791.71577</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3319.53063</v>
+        <v>1315.50812</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>868.1775</v>
+        <v>2613.20888</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>600.02016</v>
+        <v>2082.89764</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2472.44812</v>
+        <v>4067.28793</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1087.02569</v>
+        <v>4044.82611</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1193.45855</v>
+        <v>4355.29108</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4149.14598</v>
+        <v>6337.5371</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6763.09154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7273.46037</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4227.352</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>183.32331</v>
+        <v>404.45051</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1001.77581</v>
+        <v>1216.55372</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4005.54702</v>
+        <v>15941.57207</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>250.89619</v>
+        <v>115.94657</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1212.12264</v>
+        <v>868.72361</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3351.4524</v>
+        <v>3812.67531</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1093.74472</v>
+        <v>1186.73925</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>444.15151</v>
+        <v>793.2114200000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>138.75328</v>
+        <v>1025.64315</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1581.83698</v>
+        <v>1550.7339</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2811.6424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3274.94501</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1208.981</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2756.6416</v>
+        <v>8985.972169999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6426.36945</v>
+        <v>99467.34565999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>30437.09188</v>
+        <v>45193.06856</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7524.78053</v>
+        <v>10061.19778</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>19911.00996</v>
+        <v>35886.59748</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>18203.46736</v>
+        <v>26204.42685</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11059.55399</v>
+        <v>29347.22348</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>17760.35879</v>
+        <v>48127.40378</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8071.757030000001</v>
+        <v>17216.61133</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>54584.17636999999</v>
+        <v>64296.70256000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>23687.25191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>58459.48271</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>23038.239</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1814.3604</v>
+        <v>-6184.4548</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>8411.434279999999</v>
+        <v>-46060.41882</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-30638.66947</v>
+        <v>-56158.23865</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-40851.54147</v>
+        <v>-47062.86802</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-49801.26521</v>
+        <v>-85379.92118999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1115.46119</v>
+        <v>-45070.09014</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>17553.79728</v>
+        <v>3652.9548</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>44827.31175</v>
+        <v>1652.1699</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>68203.87751999999</v>
+        <v>74662.64719</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>109199.29943</v>
+        <v>230585.02887</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>307803.77591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>332242.67374</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>337644.2</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2882.89125</v>
+        <v>2815.8038</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>5232.991019999999</v>
+        <v>4396.491099999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4470.19154</v>
+        <v>5029.347009999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5431.615559999999</v>
+        <v>6300.63221</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6495.14288</v>
+        <v>6275.74731</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6762.47504</v>
+        <v>9147.00272</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7802.52755</v>
+        <v>9245.011349999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9784.085499999999</v>
+        <v>9744.818569999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>8647.672970000001</v>
+        <v>12013.41616</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>28349.73069</v>
+        <v>32887.6807</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>45294.92392</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>51190.72618</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>41940.928</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1068.53085</v>
+        <v>-9000.258599999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3178.44326</v>
+        <v>-50456.90992</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-35108.86101</v>
+        <v>-61187.58566</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-46283.15703</v>
+        <v>-53363.50023</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-56296.40809</v>
+        <v>-91655.6685</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-7877.93623</v>
+        <v>-54217.09286</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>9751.26973</v>
+        <v>-5592.05655</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>35043.22625</v>
+        <v>-8092.64867</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>59556.20454999999</v>
+        <v>62649.23103</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>80849.56873999999</v>
+        <v>197697.34817</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>262508.85199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>281051.94756</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>295703.272</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>67</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>